--- a/config_Release/fish3d_gun_barrel_config.xlsx
+++ b/config_Release/fish3d_gun_barrel_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="597"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="597" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="main|主表" sheetId="6" r:id="rId1"/>
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="110">
   <si>
     <t>line|行号</t>
   </si>
@@ -433,9 +433,6 @@
   </si>
   <si>
     <t>FishNetPrefab_3d_5</t>
-  </si>
-  <si>
-    <t>FishNetPrefab_3d_7</t>
   </si>
   <si>
     <r>
@@ -550,6 +547,78 @@
   <si>
     <t>VIP5开启</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣光  I</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣光  II</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣光  III</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣光  IV</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣光  V</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>FishNetPrefab_3d_11</t>
+  </si>
+  <si>
+    <t>BulletPrefab_3d_14</t>
+  </si>
+  <si>
+    <t>FishNetPrefab_3d_12</t>
+  </si>
+  <si>
+    <t>BulletPrefab_3d_15</t>
+  </si>
+  <si>
+    <t>GunPrefab17</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>GunPrefab18</t>
+  </si>
+  <si>
+    <t>GunPrefab19</t>
+  </si>
+  <si>
+    <t>GunPrefab20</t>
+  </si>
+  <si>
+    <t>GunPrefab21</t>
+  </si>
+  <si>
+    <t>FishNetPrefab_3d_7</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>BulletPrefab_3d_13</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>BulletPrefab_3d_16</t>
+  </si>
+  <si>
+    <t>BulletPrefab_3d_17</t>
+  </si>
+  <si>
+    <t>FishNetPrefab_3d_10</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FishNetPrefab_3d_13</t>
+  </si>
+  <si>
+    <t>FishNetPrefab_3d_14</t>
   </si>
 </sst>
 </file>
@@ -631,7 +700,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -642,6 +711,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF8DB4E2"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -687,7 +762,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -744,6 +819,24 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1024,8 +1117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1087,7 +1180,7 @@
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J2" s="14"/>
     </row>
@@ -1114,7 +1207,7 @@
         <v>4</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J3" s="14"/>
     </row>
@@ -1141,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J4" s="14"/>
     </row>
@@ -1168,7 +1261,7 @@
         <v>3</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J5" s="14"/>
     </row>
@@ -1195,7 +1288,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J6" s="14"/>
     </row>
@@ -1222,7 +1315,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J7" s="14"/>
     </row>
@@ -1249,29 +1342,132 @@
         <v>1</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J8" s="14"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H10" s="14"/>
-      <c r="J10" s="14"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H11" s="14"/>
-      <c r="J11" s="14"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D12" s="2"/>
-      <c r="H12" s="14"/>
-      <c r="J12" s="14"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D13" s="2"/>
+    <row r="9" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="19">
+        <v>8</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="21">
+        <v>1</v>
+      </c>
+      <c r="D9" s="19">
+        <v>8</v>
+      </c>
+      <c r="E9" s="19">
+        <v>1</v>
+      </c>
+      <c r="F9" s="19">
+        <v>1</v>
+      </c>
+      <c r="G9" s="19">
+        <v>5</v>
+      </c>
+      <c r="H9" s="21"/>
+      <c r="J9" s="21"/>
+    </row>
+    <row r="10" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="23">
+        <v>9</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="21">
+        <v>2</v>
+      </c>
+      <c r="D10" s="19">
+        <v>9</v>
+      </c>
+      <c r="E10" s="19">
+        <v>1</v>
+      </c>
+      <c r="F10" s="19">
+        <v>1</v>
+      </c>
+      <c r="G10" s="19">
+        <v>6</v>
+      </c>
+      <c r="H10" s="21"/>
+      <c r="J10" s="21"/>
+    </row>
+    <row r="11" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="19">
+        <v>10</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="21">
+        <v>2</v>
+      </c>
+      <c r="D11" s="19">
+        <v>10</v>
+      </c>
+      <c r="E11" s="19">
+        <v>1</v>
+      </c>
+      <c r="F11" s="19">
+        <v>1</v>
+      </c>
+      <c r="G11" s="19">
+        <v>7</v>
+      </c>
+      <c r="H11" s="21"/>
+      <c r="J11" s="21"/>
+    </row>
+    <row r="12" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="23">
+        <v>11</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="21">
+        <v>2</v>
+      </c>
+      <c r="D12" s="19">
+        <v>11</v>
+      </c>
+      <c r="E12" s="19">
+        <v>1</v>
+      </c>
+      <c r="F12" s="19">
+        <v>1</v>
+      </c>
+      <c r="G12" s="19">
+        <v>8</v>
+      </c>
+      <c r="H12" s="21"/>
+      <c r="J12" s="21"/>
+    </row>
+    <row r="13" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="19">
+        <v>12</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="21">
+        <v>3</v>
+      </c>
+      <c r="D13" s="19">
+        <v>12</v>
+      </c>
+      <c r="E13" s="19">
+        <v>1</v>
+      </c>
+      <c r="F13" s="19">
+        <v>1</v>
+      </c>
+      <c r="G13" s="19">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -1283,11 +1479,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D28" sqref="D28"/>
+      <selection pane="topRight" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1557,7 +1753,7 @@
         <v>60</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>66</v>
@@ -1621,7 +1817,7 @@
         <v>62</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>68</v>
@@ -1653,7 +1849,7 @@
         <v>63</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>69</v>
@@ -1665,6 +1861,166 @@
         <v>0.18</v>
       </c>
       <c r="J11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="19">
+        <v>11</v>
+      </c>
+      <c r="B12" s="19">
+        <v>11</v>
+      </c>
+      <c r="C12" s="19">
+        <v>8</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="H12" s="22">
+        <v>15</v>
+      </c>
+      <c r="I12" s="23">
+        <v>0.18</v>
+      </c>
+      <c r="J12" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="19">
+        <v>12</v>
+      </c>
+      <c r="B13" s="19">
+        <v>12</v>
+      </c>
+      <c r="C13" s="19">
+        <v>9</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="H13" s="22">
+        <v>15</v>
+      </c>
+      <c r="I13" s="23">
+        <v>0.18</v>
+      </c>
+      <c r="J13" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="19">
+        <v>13</v>
+      </c>
+      <c r="B14" s="19">
+        <v>13</v>
+      </c>
+      <c r="C14" s="19">
+        <v>10</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="H14" s="22">
+        <v>15</v>
+      </c>
+      <c r="I14" s="23">
+        <v>0.18</v>
+      </c>
+      <c r="J14" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="19">
+        <v>14</v>
+      </c>
+      <c r="B15" s="19">
+        <v>14</v>
+      </c>
+      <c r="C15" s="19">
+        <v>11</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="H15" s="22">
+        <v>15</v>
+      </c>
+      <c r="I15" s="23">
+        <v>0.18</v>
+      </c>
+      <c r="J15" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="19">
+        <v>15</v>
+      </c>
+      <c r="B16" s="19">
+        <v>15</v>
+      </c>
+      <c r="C16" s="19">
+        <v>12</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="H16" s="22">
+        <v>15</v>
+      </c>
+      <c r="I16" s="23">
+        <v>0.18</v>
+      </c>
+      <c r="J16" s="19">
         <v>1</v>
       </c>
     </row>
@@ -1679,7 +2035,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E101"/>
     </sheetView>
   </sheetViews>
@@ -3631,7 +3987,7 @@
         <v>24</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>25</v>
@@ -3646,7 +4002,7 @@
       </c>
       <c r="C2" s="17"/>
       <c r="D2" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>53</v>
@@ -3663,7 +4019,7 @@
         <v>52</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>51</v>
@@ -3678,7 +4034,7 @@
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>54</v>
@@ -3693,7 +4049,7 @@
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>55</v>
@@ -3707,13 +4063,13 @@
         <v>50</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D6" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>81</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -3728,10 +4084,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3809,6 +4165,76 @@
         <v>3</v>
       </c>
     </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="16">
+        <v>5</v>
+      </c>
+      <c r="B6" s="15">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="16">
+        <v>6</v>
+      </c>
+      <c r="B7" s="15">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="16">
+        <v>7</v>
+      </c>
+      <c r="B8" s="15">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="16">
+        <v>8</v>
+      </c>
+      <c r="B9" s="15">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2">
+        <v>4</v>
+      </c>
+      <c r="D9" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="16">
+        <v>9</v>
+      </c>
+      <c r="B10" s="15">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2">
+        <v>4</v>
+      </c>
+      <c r="D10" s="2">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config_Release/fish3d_gun_barrel_config.xlsx
+++ b/config_Release/fish3d_gun_barrel_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="597" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="597" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main|主表" sheetId="6" r:id="rId1"/>
@@ -114,9 +114,11 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>1：购买
+          <t xml:space="preserve">1：购买
 2：VIP送
-3：活动赠送</t>
+3：活动赠送
+4：等级
+</t>
         </r>
       </text>
     </comment>
@@ -1118,7 +1120,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD13"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2035,7 +2037,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E101"/>
     </sheetView>
   </sheetViews>
@@ -4086,8 +4088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config_Release/fish3d_gun_barrel_config.xlsx
+++ b/config_Release/fish3d_gun_barrel_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="597" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="597" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="main|主表" sheetId="6" r:id="rId1"/>
@@ -127,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="115">
   <si>
     <t>line|行号</t>
   </si>
@@ -621,6 +621,26 @@
   </si>
   <si>
     <t>FishNetPrefab_3d_14</t>
+  </si>
+  <si>
+    <t>cpl_notcjj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_notcjj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_notcjj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_notcjj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_notcjj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -764,7 +784,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -812,9 +832,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
@@ -1348,126 +1365,126 @@
       </c>
       <c r="J8" s="14"/>
     </row>
-    <row r="9" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="19">
+    <row r="9" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="18">
         <v>8</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="C9" s="21">
-        <v>1</v>
-      </c>
-      <c r="D9" s="19">
+      <c r="C9" s="20">
+        <v>1</v>
+      </c>
+      <c r="D9" s="18">
         <v>8</v>
       </c>
-      <c r="E9" s="19">
-        <v>1</v>
-      </c>
-      <c r="F9" s="19">
-        <v>1</v>
-      </c>
-      <c r="G9" s="19">
+      <c r="E9" s="18">
+        <v>1</v>
+      </c>
+      <c r="F9" s="18">
+        <v>1</v>
+      </c>
+      <c r="G9" s="18">
         <v>5</v>
       </c>
-      <c r="H9" s="21"/>
-      <c r="J9" s="21"/>
-    </row>
-    <row r="10" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="23">
+      <c r="H9" s="20"/>
+      <c r="J9" s="20"/>
+    </row>
+    <row r="10" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="22">
         <v>9</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="C10" s="21">
-        <v>2</v>
-      </c>
-      <c r="D10" s="19">
+      <c r="C10" s="20">
+        <v>2</v>
+      </c>
+      <c r="D10" s="18">
         <v>9</v>
       </c>
-      <c r="E10" s="19">
-        <v>1</v>
-      </c>
-      <c r="F10" s="19">
-        <v>1</v>
-      </c>
-      <c r="G10" s="19">
+      <c r="E10" s="18">
+        <v>1</v>
+      </c>
+      <c r="F10" s="18">
+        <v>1</v>
+      </c>
+      <c r="G10" s="18">
         <v>6</v>
       </c>
-      <c r="H10" s="21"/>
-      <c r="J10" s="21"/>
-    </row>
-    <row r="11" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="19">
+      <c r="H10" s="20"/>
+      <c r="J10" s="20"/>
+    </row>
+    <row r="11" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="18">
         <v>10</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="C11" s="21">
-        <v>2</v>
-      </c>
-      <c r="D11" s="19">
+      <c r="C11" s="20">
+        <v>2</v>
+      </c>
+      <c r="D11" s="18">
         <v>10</v>
       </c>
-      <c r="E11" s="19">
-        <v>1</v>
-      </c>
-      <c r="F11" s="19">
-        <v>1</v>
-      </c>
-      <c r="G11" s="19">
+      <c r="E11" s="18">
+        <v>1</v>
+      </c>
+      <c r="F11" s="18">
+        <v>1</v>
+      </c>
+      <c r="G11" s="18">
         <v>7</v>
       </c>
-      <c r="H11" s="21"/>
-      <c r="J11" s="21"/>
-    </row>
-    <row r="12" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="23">
+      <c r="H11" s="20"/>
+      <c r="J11" s="20"/>
+    </row>
+    <row r="12" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="22">
         <v>11</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="21">
-        <v>2</v>
-      </c>
-      <c r="D12" s="19">
+      <c r="C12" s="20">
+        <v>2</v>
+      </c>
+      <c r="D12" s="18">
         <v>11</v>
       </c>
-      <c r="E12" s="19">
-        <v>1</v>
-      </c>
-      <c r="F12" s="19">
-        <v>1</v>
-      </c>
-      <c r="G12" s="19">
+      <c r="E12" s="18">
+        <v>1</v>
+      </c>
+      <c r="F12" s="18">
+        <v>1</v>
+      </c>
+      <c r="G12" s="18">
         <v>8</v>
       </c>
-      <c r="H12" s="21"/>
-      <c r="J12" s="21"/>
-    </row>
-    <row r="13" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="19">
+      <c r="H12" s="20"/>
+      <c r="J12" s="20"/>
+    </row>
+    <row r="13" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="18">
         <v>12</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="20">
         <v>3</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="18">
         <v>12</v>
       </c>
-      <c r="E13" s="19">
-        <v>1</v>
-      </c>
-      <c r="F13" s="19">
-        <v>1</v>
-      </c>
-      <c r="G13" s="19">
+      <c r="E13" s="18">
+        <v>1</v>
+      </c>
+      <c r="F13" s="18">
+        <v>1</v>
+      </c>
+      <c r="G13" s="18">
         <v>9</v>
       </c>
     </row>
@@ -1866,163 +1883,163 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="19">
+    <row r="12" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="18">
         <v>11</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="18">
         <v>11</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="18">
         <v>8</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="F12" s="24" t="s">
+      <c r="F12" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="G12" s="24" t="s">
+      <c r="G12" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="H12" s="22">
+      <c r="H12" s="21">
         <v>15</v>
       </c>
-      <c r="I12" s="23">
+      <c r="I12" s="22">
         <v>0.18</v>
       </c>
-      <c r="J12" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="19">
+      <c r="J12" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="18">
         <v>12</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="18">
         <v>12</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="18">
         <v>9</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="E13" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="F13" s="24" t="s">
+      <c r="F13" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="G13" s="24" t="s">
+      <c r="G13" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="H13" s="22">
+      <c r="H13" s="21">
         <v>15</v>
       </c>
-      <c r="I13" s="23">
+      <c r="I13" s="22">
         <v>0.18</v>
       </c>
-      <c r="J13" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="19">
+      <c r="J13" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="18">
         <v>13</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="18">
         <v>13</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="18">
         <v>10</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="24" t="s">
+      <c r="E14" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="F14" s="24" t="s">
+      <c r="F14" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="G14" s="24" t="s">
+      <c r="G14" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="H14" s="22">
+      <c r="H14" s="21">
         <v>15</v>
       </c>
-      <c r="I14" s="23">
+      <c r="I14" s="22">
         <v>0.18</v>
       </c>
-      <c r="J14" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="19">
+      <c r="J14" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="18">
         <v>14</v>
       </c>
-      <c r="B15" s="19">
+      <c r="B15" s="18">
         <v>14</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="18">
         <v>11</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="F15" s="24" t="s">
+      <c r="F15" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="G15" s="24" t="s">
+      <c r="G15" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="H15" s="22">
+      <c r="H15" s="21">
         <v>15</v>
       </c>
-      <c r="I15" s="23">
+      <c r="I15" s="22">
         <v>0.18</v>
       </c>
-      <c r="J15" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="19">
+      <c r="J15" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="18">
         <v>15</v>
       </c>
-      <c r="B16" s="19">
+      <c r="B16" s="18">
         <v>15</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="18">
         <v>12</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="E16" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="F16" s="24" t="s">
+      <c r="F16" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="G16" s="24" t="s">
+      <c r="G16" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="H16" s="22">
+      <c r="H16" s="21">
         <v>15</v>
       </c>
-      <c r="I16" s="23">
+      <c r="I16" s="22">
         <v>0.18</v>
       </c>
-      <c r="J16" s="19">
+      <c r="J16" s="18">
         <v>1</v>
       </c>
     </row>
@@ -2037,7 +2054,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E101"/>
     </sheetView>
   </sheetViews>
@@ -4002,7 +4019,7 @@
       <c r="B2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="17"/>
+      <c r="C2" s="16"/>
       <c r="D2" s="6" t="s">
         <v>76</v>
       </c>
@@ -4017,7 +4034,7 @@
       <c r="B3" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>52</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -4034,7 +4051,7 @@
       <c r="B4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="18"/>
+      <c r="C4" s="17"/>
       <c r="D4" s="6" t="s">
         <v>78</v>
       </c>
@@ -4049,7 +4066,7 @@
       <c r="B5" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="18"/>
+      <c r="C5" s="17"/>
       <c r="D5" s="13" t="s">
         <v>79</v>
       </c>
@@ -4064,7 +4081,7 @@
       <c r="B6" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="16" t="s">
         <v>75</v>
       </c>
       <c r="D6" s="13" t="s">
@@ -4086,10 +4103,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4147,94 +4164,192 @@
         <v>3</v>
       </c>
       <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2">
+        <v>5</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
         <v>3</v>
       </c>
-      <c r="C4" s="2">
-        <v>2</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="16">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2">
+        <v>5</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="15">
         <v>4</v>
       </c>
-      <c r="B5" s="15">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="C7" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="16">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="15">
         <v>5</v>
-      </c>
-      <c r="B6" s="15">
-        <v>5</v>
-      </c>
-      <c r="C6" s="2">
-        <v>4</v>
-      </c>
-      <c r="D6" s="2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="16">
-        <v>6</v>
-      </c>
-      <c r="B7" s="15">
-        <v>6</v>
-      </c>
-      <c r="C7" s="2">
-        <v>4</v>
-      </c>
-      <c r="D7" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="16">
-        <v>7</v>
-      </c>
-      <c r="B8" s="15">
-        <v>7</v>
       </c>
       <c r="C8" s="2">
         <v>4</v>
       </c>
       <c r="D8" s="2">
-        <v>60</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="16">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="15">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C9" s="2">
-        <v>4</v>
-      </c>
-      <c r="D9" s="2">
-        <v>80</v>
+        <v>5</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="16">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="15">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C10" s="2">
         <v>4</v>
       </c>
       <c r="D10" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="15">
+        <v>6</v>
+      </c>
+      <c r="C11" s="2">
+        <v>5</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="15">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="15">
+        <v>7</v>
+      </c>
+      <c r="C13" s="2">
+        <v>5</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="15">
+        <v>8</v>
+      </c>
+      <c r="C14" s="2">
+        <v>4</v>
+      </c>
+      <c r="D14" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="15">
+        <v>8</v>
+      </c>
+      <c r="C15" s="2">
+        <v>5</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="15">
+        <v>9</v>
+      </c>
+      <c r="C16" s="2">
+        <v>4</v>
+      </c>
+      <c r="D16" s="2">
         <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="15">
+        <v>9</v>
+      </c>
+      <c r="C17" s="2">
+        <v>5</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/fish3d_gun_barrel_config.xlsx
+++ b/config_Release/fish3d_gun_barrel_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="597" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main|主表" sheetId="6" r:id="rId1"/>
@@ -127,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="109">
   <si>
     <t>line|行号</t>
   </si>
@@ -163,19 +163,6 @@
   <si>
     <t>7,9</t>
     <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>BulletPrefab_3d_1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>BulletPrefab_3d_2</t>
-  </si>
-  <si>
-    <t>BulletPrefab_3d_3</t>
-  </si>
-  <si>
-    <t>BulletPrefab_3d_4</t>
   </si>
   <si>
     <t>name|炮管名字</t>
@@ -287,10 +274,6 @@
   </si>
   <si>
     <t>gunprefab|鱼枪的prefab</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>FishNetPrefab_3d_1</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -372,10 +355,6 @@
   </si>
   <si>
     <t>GunPrefab7</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>GunPrefab1</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1154,28 +1133,28 @@
   <sheetData>
     <row r="1" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -1183,7 +1162,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
@@ -1199,7 +1178,7 @@
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="14" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="J2" s="14"/>
     </row>
@@ -1208,7 +1187,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C3" s="4">
         <v>1</v>
@@ -1226,7 +1205,7 @@
         <v>4</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="J3" s="14"/>
     </row>
@@ -1235,7 +1214,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C4" s="4">
         <v>1</v>
@@ -1253,7 +1232,7 @@
         <v>2</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="J4" s="14"/>
     </row>
@@ -1262,7 +1241,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C5" s="4">
         <v>2</v>
@@ -1280,7 +1259,7 @@
         <v>3</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="J5" s="14"/>
     </row>
@@ -1289,7 +1268,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C6" s="4">
         <v>2</v>
@@ -1307,7 +1286,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="J6" s="14"/>
     </row>
@@ -1316,7 +1295,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C7" s="4">
         <v>3</v>
@@ -1334,7 +1313,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="J7" s="14"/>
     </row>
@@ -1343,7 +1322,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C8" s="4">
         <v>3</v>
@@ -1361,7 +1340,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="J8" s="14"/>
     </row>
@@ -1370,7 +1349,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C9" s="20">
         <v>1</v>
@@ -1395,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C10" s="20">
         <v>2</v>
@@ -1420,7 +1399,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C11" s="20">
         <v>2</v>
@@ -1445,7 +1424,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C12" s="20">
         <v>2</v>
@@ -1470,7 +1449,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C13" s="20">
         <v>3</v>
@@ -1500,9 +1479,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A15" sqref="A15"/>
+      <selection pane="topRight" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1529,13 +1508,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -1566,14 +1545,14 @@
       <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>11</v>
+      <c r="E2" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>98</v>
       </c>
       <c r="H2">
         <v>15</v>
@@ -1598,14 +1577,14 @@
       <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>12</v>
+      <c r="E3" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>98</v>
       </c>
       <c r="H3">
         <v>15</v>
@@ -1630,14 +1609,14 @@
       <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>13</v>
+      <c r="E4" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>98</v>
       </c>
       <c r="H4">
         <v>15</v>
@@ -1662,14 +1641,14 @@
       <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>14</v>
+      <c r="E5" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>98</v>
       </c>
       <c r="H5">
         <v>15</v>
@@ -1692,16 +1671,16 @@
         <v>2</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H6">
         <v>15</v>
@@ -1729,16 +1708,16 @@
         <v>3</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="H7">
         <v>15</v>
@@ -1766,16 +1745,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="H8">
         <v>15</v>
@@ -1798,16 +1777,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="H9">
         <v>15</v>
@@ -1830,16 +1809,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="H10">
         <v>15</v>
@@ -1862,16 +1841,16 @@
         <v>7</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="H11">
         <v>15</v>
@@ -1894,16 +1873,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E12" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="G12" s="23" t="s">
         <v>98</v>
-      </c>
-      <c r="F12" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="G12" s="23" t="s">
-        <v>104</v>
       </c>
       <c r="H12" s="21">
         <v>15</v>
@@ -1926,16 +1905,16 @@
         <v>9</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G13" s="23" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H13" s="21">
         <v>15</v>
@@ -1958,16 +1937,16 @@
         <v>10</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G14" s="23" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="H14" s="21">
         <v>15</v>
@@ -1990,16 +1969,16 @@
         <v>11</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G15" s="23" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H15" s="21">
         <v>15</v>
@@ -2022,16 +2001,16 @@
         <v>12</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G16" s="23" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="H16" s="21">
         <v>15</v>
@@ -2075,19 +2054,19 @@
   <sheetData>
     <row r="1" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -3997,19 +3976,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="D1" s="7" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -4017,14 +3996,14 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="6" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -4032,16 +4011,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>52</v>
-      </c>
       <c r="D3" s="6" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -4049,14 +4028,14 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -4064,14 +4043,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="13" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -4079,16 +4058,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C6" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>75</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -4105,8 +4084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4119,19 +4098,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -4170,7 +4149,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -4198,7 +4177,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -4237,7 +4216,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -4265,7 +4244,7 @@
         <v>5</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -4293,7 +4272,7 @@
         <v>5</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -4321,7 +4300,7 @@
         <v>5</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -4349,7 +4328,7 @@
         <v>5</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
